--- a/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.761601459991342</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.050645238862946</v>
+        <v>2.050645238862945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4289905310219645</v>
@@ -649,7 +649,7 @@
         <v>0.3657838905603047</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5968877551217009</v>
+        <v>0.5968877551217006</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.089448436063086</v>
+        <v>-1.262366423082679</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.34867863380241</v>
+        <v>10.04255558213017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.099987402765245</v>
+        <v>0.7568051524437585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7190358559565615</v>
+        <v>-0.6570036704929985</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.08989200012391264</v>
+        <v>-0.09739569405081785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3650477114025636</v>
+        <v>0.3792420643427041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04228243353590446</v>
+        <v>0.0276928309147795</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1612014222681228</v>
+        <v>-0.1611300773268116</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.05349779286327</v>
+        <v>11.2039030331965</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.6197459814742</v>
+        <v>26.76710641940996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.08067703097139</v>
+        <v>15.52409519015431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.475136097269766</v>
+        <v>4.345781925800547</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.204654134319448</v>
+        <v>1.173345512757089</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.33031920766895</v>
+        <v>1.365794845535849</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7968559328544323</v>
+        <v>0.7670380548541769</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.165697250765664</v>
+        <v>2.088333849458159</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.262939349025986</v>
+        <v>7.115683956121073</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.252970271226215</v>
+        <v>4.663909310277811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.792574207431219</v>
+        <v>0.3526482669836157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8017112918907549</v>
+        <v>-0.3580609442270432</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2415414155899856</v>
+        <v>0.2822422838595735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3096395059365551</v>
+        <v>0.3510905664273353</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1126044299497407</v>
+        <v>0.03955387222354829</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05174497147610169</v>
+        <v>-0.03113517996912527</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.84861313016231</v>
+        <v>17.7998582615824</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.84861981723622</v>
+        <v>13.85758030982442</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.081746424090444</v>
+        <v>7.088362261687742</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.528948047637888</v>
+        <v>8.473681278732649</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9174315619565531</v>
+        <v>0.9054245034785636</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.447857266826166</v>
+        <v>1.544853028053819</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.752091973653504</v>
+        <v>1.716320608895387</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8935802057653183</v>
+        <v>0.8899953992863984</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.393999543025212</v>
+        <v>-1.219752227274608</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.299103026168373</v>
+        <v>2.351269532630945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.711759469516819</v>
+        <v>-2.260513775556566</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.318215520287043</v>
+        <v>1.401071439648833</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1908668233831748</v>
+        <v>-0.1784735839823171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1300098472845987</v>
+        <v>0.1217423829730808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1318789904859979</v>
+        <v>-0.1662626882042449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1089127556215581</v>
+        <v>0.0983921482510251</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.660982231322173</v>
+        <v>6.71474560398634</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.32817754737134</v>
+        <v>14.38231516270558</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.062462866545522</v>
+        <v>8.79789016242427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.355491358329807</v>
+        <v>9.362373968865958</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.496739034023932</v>
+        <v>1.542277641653483</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.23377324396714</v>
+        <v>1.223026393667186</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8484220474070961</v>
+        <v>0.8937650652093065</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.355520680107487</v>
+        <v>1.31445399755459</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2576396139402555</v>
+        <v>0.115141865417563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>11.25496816467207</v>
+        <v>12.00939466540296</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.310037524083656</v>
+        <v>3.1995249525488</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.72510169825262</v>
+        <v>-2.255335928648083</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01542401327121534</v>
+        <v>0.006611789485763275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5197521643362483</v>
+        <v>0.5728902702389013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1461633896941082</v>
+        <v>0.1408699737297485</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1095665455426538</v>
+        <v>-0.1297770822162153</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.67164971658245</v>
+        <v>10.90046578417706</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.21387246604375</v>
+        <v>23.97625853202971</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.61141371562571</v>
+        <v>15.35536888032217</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.822549838918381</v>
+        <v>9.073860451778357</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.032745498151426</v>
+        <v>1.062614792991812</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.619337074434072</v>
+        <v>1.649619814168129</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.06447889078647</v>
+        <v>1.063340410996875</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.81619515491518</v>
+        <v>0.8560232021718887</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.46140998854528</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10.59857943036848</v>
+        <v>10.59857943036845</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3219143407610409</v>
@@ -1049,7 +1049,7 @@
         <v>0.1795728954087039</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2843498452919244</v>
+        <v>0.2843498452919236</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.280453369360201</v>
+        <v>-0.5544433341779452</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.438076175955866</v>
+        <v>8.696907164319589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.607331906522353</v>
+        <v>-4.913899148529163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.739672566206067</v>
+        <v>2.693969956414637</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.04159599806826917</v>
+        <v>-0.03312478314604673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5378251893712365</v>
+        <v>0.6328858742072444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1940402646161517</v>
+        <v>-0.2166600837813618</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06373632368466436</v>
+        <v>0.06234639590042335</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.03796492541916</v>
+        <v>16.18348419898083</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.63911502626179</v>
+        <v>23.11101659276934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.82605480102232</v>
+        <v>10.68978748298727</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.78022798348713</v>
+        <v>17.94781840546525</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8569027237680995</v>
+        <v>0.7795225516442523</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.341004416750399</v>
+        <v>3.019497911544351</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7198198843188811</v>
+        <v>0.6931536489798563</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5864601471362823</v>
+        <v>0.5386637858265466</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.451010088744413</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.590639820358667</v>
+        <v>2.590639820358659</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4622565980463899</v>
@@ -1149,7 +1149,7 @@
         <v>0.8018452312144778</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2042649836615156</v>
+        <v>0.204264983661515</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.117112237853466</v>
+        <v>-1.259458233175029</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.080932309831288</v>
+        <v>2.600279966487528</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.949230379962354</v>
+        <v>2.243122469342041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.828019037985358</v>
+        <v>-1.827316188945991</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1063021084082187</v>
+        <v>-0.1133490130078294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09734304799073025</v>
+        <v>0.1375814795292686</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1414423713107562</v>
+        <v>0.1396436265152837</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1155753590034053</v>
+        <v>-0.1323884671195943</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.956022356954207</v>
+        <v>9.598268019545882</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.44867472077193</v>
+        <v>15.49376666590616</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.18242741107602</v>
+        <v>14.96647505789547</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.907492305866803</v>
+        <v>7.25645088095257</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.365406772415807</v>
+        <v>1.287611595878496</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.492407093363501</v>
+        <v>1.410224435755773</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.781973459331758</v>
+        <v>1.861832219297299</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.664904409913985</v>
+        <v>0.7253984523942341</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.361076912276842</v>
+        <v>1.557656000663119</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.991712427018665</v>
+        <v>1.606885416520361</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05200742471741542</v>
+        <v>-0.1015355263562794</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.060973049778286</v>
+        <v>4.367163272187796</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.108182536528364</v>
+        <v>0.1206154650072719</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09446315598694296</v>
+        <v>0.08170701122400977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.002666357691662381</v>
+        <v>-0.009159288546584481</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2010808026751844</v>
+        <v>0.2094825436518179</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.113199112776574</v>
+        <v>9.489023481271015</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.64042031080558</v>
+        <v>10.94620997657776</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.01119018645862</v>
+        <v>8.073909954858266</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.8078199715448</v>
+        <v>13.17154014481982</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9824658120719088</v>
+        <v>0.9742164757849056</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7150664944885994</v>
+        <v>0.7357191497725822</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.735747212017329</v>
+        <v>0.7068152384786572</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8283134612834825</v>
+        <v>0.8511649971055709</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.466352180344762</v>
+        <v>-2.768262537361912</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.77454585411817</v>
+        <v>3.112199261050013</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.455284367167213</v>
+        <v>1.086786709546774</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.470957594924116</v>
+        <v>4.368839186011979</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1184044689473108</v>
+        <v>-0.09749202645464987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1442306214060867</v>
+        <v>0.1681446889830389</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2385227556721166</v>
+        <v>0.1499787553969975</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3925001493698697</v>
+        <v>0.377762801185874</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.337935448531757</v>
+        <v>6.290518674699512</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.0162215032734</v>
+        <v>11.1961702502599</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.443393941822128</v>
+        <v>6.572640837199928</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.45037384585889</v>
+        <v>10.63305567401911</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2575611976752356</v>
+        <v>0.2583847476897673</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7558707905815828</v>
+        <v>0.7654087053496205</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.663566384394598</v>
+        <v>1.594790353161679</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.348890781968653</v>
+        <v>1.289198570093268</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.641148867559894</v>
+        <v>3.386726263165873</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.158070493278437</v>
+        <v>7.871091304695216</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.344217312852928</v>
+        <v>3.414612883190554</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.394570739569288</v>
+        <v>4.577159707910472</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2036186327714969</v>
+        <v>0.1920116794942026</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4892913070925209</v>
+        <v>0.4644659486149837</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2616775076607709</v>
+        <v>0.2754004103697216</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3119096832448082</v>
+        <v>0.3135724831877394</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.544641214668904</v>
+        <v>7.449192173842737</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.90859137238809</v>
+        <v>12.00881750378374</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.784624807782437</v>
+        <v>6.787829221484796</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.529920156311502</v>
+        <v>7.905846968487522</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4702573402501553</v>
+        <v>0.4718318908488795</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.809482345638933</v>
+        <v>0.8068077539044339</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6254234854025625</v>
+        <v>0.635016110138806</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.6141104329392291</v>
+        <v>0.6341688622038283</v>
       </c>
     </row>
     <row r="31">
